--- a/tut06/output/2001EE44.xlsx
+++ b/tut06/output/2001EE44.xlsx
@@ -516,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -537,7 +537,9 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -558,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -601,7 +603,9 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -644,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -687,7 +691,9 @@
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -708,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +735,9 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
